--- a/analysis/data/general_funds/offset/fuzz95_tfidf80.xlsx
+++ b/analysis/data/general_funds/offset/fuzz95_tfidf80.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dabinlee\Documents\GitHub\mwdsbe_binny\MWDSBE\analysis\data\general_funds\offset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66942207-5AFD-4CA1-85C4-22AA37E83303}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560F96C8-7224-4282-B9A0-BDF314929A33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
